--- a/Interviews.xlsx
+++ b/Interviews.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>interviews</t>
   </si>
@@ -99,13 +99,28 @@
   </si>
   <si>
     <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>Margaret Lizza</t>
+  </si>
+  <si>
+    <t>Machine Learning Researcher -QuantPort</t>
+  </si>
+  <si>
+    <t>TrueX</t>
+  </si>
+  <si>
+    <t>Hemendra Rai (Maven)</t>
+  </si>
+  <si>
+    <t>multiple NYC Fintech / Quant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,6 +161,11 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2F5496"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -167,13 +187,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,15 +472,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.1640625" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="32.5" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
@@ -558,6 +579,27 @@
         <v>23</v>
       </c>
     </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="D16" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Interviews.xlsx
+++ b/Interviews.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>interviews</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Machine learning Engineer</t>
   </si>
   <si>
-    <t>Hopper</t>
-  </si>
-  <si>
     <t>Kayla Lawrence</t>
   </si>
   <si>
@@ -75,24 +72,6 @@
   </si>
   <si>
     <t>phone interview</t>
-  </si>
-  <si>
-    <t>Maria Becerril</t>
-  </si>
-  <si>
-    <t>Bloomberg</t>
-  </si>
-  <si>
-    <t>Data Licence - Python engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2nd round phone </t>
-  </si>
-  <si>
-    <t>Jocelyn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plus AI </t>
   </si>
   <si>
     <t>Parul Dhingra</t>
@@ -475,7 +454,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,74 +509,50 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="C13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="D16" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="17" x14ac:dyDescent="0.2">
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
